--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/MONTANA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/MONTANA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -851,7 +851,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -869,7 +869,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C36">
@@ -952,7 +952,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C42">
@@ -1043,7 +1043,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C49">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C51">
@@ -1126,7 +1126,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C55">
@@ -1222,7 +1222,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C62">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C65">
@@ -1344,7 +1344,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C71">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C80">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C82">
@@ -1525,7 +1525,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C83">
@@ -1538,7 +1538,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C84">
@@ -1595,7 +1595,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C88">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C90">
@@ -1696,7 +1696,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C95">
@@ -1735,7 +1735,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C98">
@@ -2139,7 +2139,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C126">
@@ -2212,41 +2212,6 @@
       </c>
       <c r="D131">
         <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/MONTANA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/MONTANA_2022.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Mulegé</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Janos</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Temósachic</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>San Dimas</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tultitlán</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>León</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1150,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1163,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1194,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Calnali</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Epazoyucan</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1277,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -1290,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1386,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1399,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1430,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1461,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1492,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1523,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Pinotepa De Don Luis</t>
@@ -1536,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -1549,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1580,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -1593,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -1606,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1637,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -1650,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1663,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1694,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Mexquitic De Carmona</t>
@@ -1707,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -1720,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>San Nicolás Tolentino</t>
@@ -1733,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -1746,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1777,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -1790,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Mocorito</t>
@@ -1803,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1834,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1865,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1896,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1927,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1958,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Alpatláhuac</t>
@@ -1971,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -1984,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Chacaltianguis</t>
@@ -1997,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -2010,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -2023,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -2036,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Nautla</t>
@@ -2049,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -2062,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -2075,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2106,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2137,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Concepción Del Oro</t>
@@ -2150,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>General Pánfilo Natera</t>
@@ -2163,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -2176,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -2189,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Total</t>
